--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1419,8 +1419,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1497,7 +1497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1525,18 +1525,26 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1547,11 +1555,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1570,74 +1638,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1648,13 +1648,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,13 +1762,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,109 +1816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,37 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,6 +1839,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1859,33 +1892,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1905,21 +1931,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1928,27 +1939,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1960,128 +1960,128 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2432,7 +2432,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2498,29 +2498,29 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="21" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="21" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="19890" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1497,7 +1497,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1532,67 +1540,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1616,8 +1563,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1638,6 +1586,58 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1648,7 +1648,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,7 +1720,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,37 +1780,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,121 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,6 +1839,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1855,7 +1875,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1875,28 +1910,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1915,173 +1939,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2431,8 +2431,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2527,11 +2527,11 @@
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1503,16 +1503,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,8 +1532,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,22 +1553,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1587,8 +1572,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1602,9 +1611,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1612,14 +1620,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1633,7 +1633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,13 +1648,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,25 +1744,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,25 +1774,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,7 +1804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,97 +1822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,38 +1844,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1896,16 +1867,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1925,163 +1896,192 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2431,8 +2431,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2542,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1504,7 +1504,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1535,14 +1549,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1589,15 +1595,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1612,28 +1610,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,7 +1648,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,139 +1816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,31 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,6 +1839,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1866,52 +1881,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,149 +1913,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2432,7 +2432,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2549,11 +2549,11 @@
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7560"/>
+    <workbookView windowWidth="20130" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1497,13 +1497,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1511,7 +1504,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1548,14 +1541,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1573,6 +1558,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1610,7 +1603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1618,7 +1611,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1633,7 +1633,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,13 +1648,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,43 +1690,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,91 +1792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,19 +1816,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1905,6 +1905,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1924,164 +1939,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2432,7 +2432,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2575,7 +2575,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="8145"/>
+    <workbookView windowWidth="20610" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1497,6 +1497,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1504,14 +1511,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1541,30 +1541,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1573,17 +1549,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1603,7 +1586,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,21 +1594,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1633,7 +1602,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,7 +1648,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,43 +1690,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,7 +1738,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,13 +1768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,55 +1792,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,25 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,21 +1839,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1883,9 +1868,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1905,21 +1907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1929,159 +1916,172 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2432,7 +2432,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2586,7 +2586,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:3">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20610" windowHeight="8145"/>
+    <workbookView windowWidth="20130" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1419,8 +1419,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1496,8 +1496,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1511,28 +1526,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1549,29 +1566,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,7 +1581,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,17 +1589,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1613,6 +1607,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1631,9 +1632,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,7 +1648,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,7 +1714,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,7 +1744,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,13 +1768,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,19 +1792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,43 +1804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,61 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,6 +1839,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1866,56 +1896,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1933,6 +1913,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1942,146 +1942,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2432,7 +2432,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2597,7 +2597,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:3">
